--- a/documents/00_Sitzungen/Milestone_2/Zeitaufwanderfassung/Zeiterfassung_xlsx/23_Zeiterfassung MS2_Histarantia_Caradrap.xlsx
+++ b/documents/00_Sitzungen/Milestone_2/Zeitaufwanderfassung/Zeiterfassung_xlsx/23_Zeiterfassung MS2_Histarantia_Caradrap.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raphael\git\ps_17_gruppe23\documents\00_Sitzungen\Milestone_2\Zeitaufwanderfassung\Zeiterfassung_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DAB13C-5C36-4A13-969E-D936F8D16C55}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A635A999-10C7-4318-90F1-A912C312A8BF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{41C5A5EF-7409-4D51-A49E-327120042783}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -171,9 +171,6 @@
     <t>Wissenstransfer</t>
   </si>
   <si>
-    <t>40 Stunden</t>
-  </si>
-  <si>
     <t>Fremdarbeit</t>
   </si>
   <si>
@@ -195,7 +192,10 @@
     <t>42 Stunden 15 Minuten</t>
   </si>
   <si>
-    <t>2 Stunden 15 Minuten</t>
+    <t>50 Stunden</t>
+  </si>
+  <si>
+    <t>Keiner</t>
   </si>
 </sst>
 </file>
@@ -762,7 +762,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -780,7 +780,7 @@
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.35">
@@ -978,7 +978,7 @@
         <v>33</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1034,13 +1034,13 @@
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="18"/>
       <c r="B24" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D25" s="20"/>
     </row>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D27" s="20"/>
     </row>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="7" t="s">
